--- a/biology/Microbiologie/Lactobacillaceae/Lactobacillaceae.xlsx
+++ b/biology/Microbiologie/Lactobacillaceae/Lactobacillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lactobacillaceae sont une famille de bactéries de l'ordre des Lactobacillales.
-Lactobacillus est le genre type. Il est composé de bactéries présentes dans les produits laitiers (fromages, yaourts), la viande, le poisson, les céréales, l'eau, les égouts, la bière, le vin, les fruits et jus de fruit, les légumes, les sauces et plats cuisinés. Ils constituent une partie du microbiote de la bouche, de l'intestin et du vagin de plusieurs animaux (y compris l'humain). Ils ne sont pathogènes que dans le cas des caries dentaires[2],[3].
+Lactobacillus est le genre type. Il est composé de bactéries présentes dans les produits laitiers (fromages, yaourts), la viande, le poisson, les céréales, l'eau, les égouts, la bière, le vin, les fruits et jus de fruit, les légumes, les sauces et plats cuisinés. Ils constituent une partie du microbiote de la bouche, de l'intestin et du vagin de plusieurs animaux (y compris l'humain). Ils ne sont pathogènes que dans le cas des caries dentaires,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques microbiologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Lactobacillaceae ont une morphologie variée : bacilles longs et fins, coccobacilles évoquant les corynebacterium ou coques[4]. Généralement, ils se regroupent en chaînes sauf pour les Pediococcus qui se groupent par deux ou quatre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Lactobacillaceae ont une morphologie variée : bacilles longs et fins, coccobacilles évoquant les corynebacterium ou coques. Généralement, ils se regroupent en chaînes sauf pour les Pediococcus qui se groupent par deux ou quatre.
 Gram positif
 non sporulé
 oxydase négatif
@@ -549,9 +563,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie actuellement acceptée est basée sur la List of Prokaryotic names with Standing in Nomenclature[5] et la phylogénie sur le séquençage du génome entier[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie actuellement acceptée est basée sur la List of Prokaryotic names with Standing in Nomenclature et la phylogénie sur le séquençage du génome entier.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Lactobacillaceae est circonscrite sur la base des analyses phylogénétiques déduites de l'étude des séquences des ARNr 16S.
 Acetilactobacillus Zheng et al. 2020
@@ -614,7 +632,7 @@
 Schleiferilactobacillus Zheng et al. 2020
 Secundilactobacillus Zheng et al. 2020
 Weissella Collins et al. 1994
-Selon NCBI  (7 avril 2021)[7] : idem sans Paralactobacillus.
+Selon NCBI  (7 avril 2021) : idem sans Paralactobacillus.
 </t>
         </is>
       </c>
